--- a/generators/app/test_db.xlsx
+++ b/generators/app/test_db.xlsx
@@ -4,13 +4,15 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8025" tabRatio="767" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8025" tabRatio="767" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="索引" sheetId="7" r:id="rId1"/>
     <sheet name="用户" sheetId="1" r:id="rId2"/>
     <sheet name="角色" sheetId="11" r:id="rId3"/>
     <sheet name="用户角色关联表" sheetId="24" r:id="rId4"/>
+    <sheet name="image" sheetId="25" r:id="rId5"/>
+    <sheet name="post" sheetId="27" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="136">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -494,6 +496,56 @@
   </si>
   <si>
     <t>当 type 为 ENUM ，ENUM-Values 中填写 cfg 中的对象，其对象key等于值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>as</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commonId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scopeField</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scopeField 在 sequelize 中，可以使用 scope 实现一表对多表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -782,7 +834,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -910,6 +962,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -922,6 +980,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -931,14 +998,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1274,10 +1335,10 @@
   <sheetData>
     <row r="1" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="43"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
       <c r="E2" s="6"/>
       <c r="F2" s="7"/>
     </row>
@@ -1348,15 +1409,15 @@
       <c r="F6" s="11">
         <v>42788</v>
       </c>
-      <c r="H6" s="45" t="s">
+      <c r="H6" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
     </row>
     <row r="7" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
@@ -1396,12 +1457,12 @@
       <c r="F8" s="11">
         <v>42788</v>
       </c>
-      <c r="H8" s="45" t="s">
+      <c r="H8" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
       <c r="L8" s="38"/>
       <c r="M8" s="38"/>
       <c r="N8" s="38"/>
@@ -1421,12 +1482,12 @@
       <c r="F9" s="11">
         <v>42788</v>
       </c>
-      <c r="H9" s="45" t="s">
+      <c r="H9" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
       <c r="L9" s="38"/>
       <c r="M9" s="38"/>
       <c r="N9" s="38"/>
@@ -1740,10 +1801,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29:S29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1755,71 +1816,74 @@
     <col min="5" max="5" width="13.375" style="1" customWidth="1"/>
     <col min="6" max="7" width="9" style="1"/>
     <col min="8" max="8" width="10.75" style="2" customWidth="1"/>
-    <col min="9" max="9" width="12.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9" style="1"/>
-    <col min="13" max="13" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10" style="38" customWidth="1"/>
-    <col min="15" max="16" width="16.25" style="38" customWidth="1"/>
-    <col min="17" max="17" width="9" style="1"/>
-    <col min="18" max="18" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="40.625" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="1"/>
+    <col min="9" max="9" width="10.25" style="38" customWidth="1"/>
+    <col min="10" max="10" width="12.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9" style="1"/>
+    <col min="14" max="14" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10" style="38" customWidth="1"/>
+    <col min="16" max="17" width="16.25" style="38" customWidth="1"/>
+    <col min="18" max="18" width="9" style="1"/>
+    <col min="19" max="19" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="40.625" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D1" s="47" t="s">
+    <row r="1" spans="2:20" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D1" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47" t="s">
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="48" t="s">
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-    </row>
-    <row r="2" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="43" t="s">
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+    </row>
+    <row r="2" spans="2:20" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44" t="s">
+      <c r="C2" s="46"/>
+      <c r="D2" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="50" t="s">
+      <c r="E2" s="46"/>
+      <c r="F2" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="51"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="44" t="s">
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="44"/>
-      <c r="K2" s="17"/>
+      <c r="K2" s="46"/>
       <c r="L2" s="17"/>
       <c r="M2" s="17"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="7"/>
-    </row>
-    <row r="3" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N2" s="17"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="7"/>
+    </row>
+    <row r="3" spans="2:20" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
@@ -1841,38 +1905,41 @@
       <c r="H3" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="L3" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="M3" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="N3" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="N3" s="35" t="s">
+      <c r="O3" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="O3" s="35" t="s">
+      <c r="P3" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="P3" s="35" t="s">
+      <c r="Q3" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="R3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="R3" s="9" t="s">
+      <c r="S3" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:20" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="10">
         <v>1</v>
       </c>
@@ -1890,22 +1957,23 @@
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
+      <c r="I4" s="33"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
-      <c r="N4" s="34"/>
+      <c r="N4" s="3"/>
       <c r="O4" s="34"/>
       <c r="P4" s="34"/>
-      <c r="Q4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="R4" s="11">
-        <v>42788</v>
-      </c>
-    </row>
-    <row r="5" spans="2:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q4" s="34"/>
+      <c r="R4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="S4" s="11">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="10">
         <v>2</v>
       </c>
@@ -1921,28 +1989,29 @@
       <c r="F5" s="4"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="4" t="s">
+      <c r="I5" s="34"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="34" t="s">
+      <c r="M5" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="N5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="34"/>
-      <c r="O5" s="33"/>
+      <c r="O5" s="34"/>
       <c r="P5" s="33"/>
-      <c r="Q5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="R5" s="11">
-        <v>42788</v>
-      </c>
-    </row>
-    <row r="6" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q5" s="33"/>
+      <c r="R5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="S5" s="11">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="10">
         <v>3</v>
       </c>
@@ -1958,24 +2027,25 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="I6" s="34"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
-      <c r="M6" s="4" t="s">
+      <c r="M6" s="3"/>
+      <c r="N6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N6" s="34"/>
-      <c r="O6" s="33"/>
+      <c r="O6" s="34"/>
       <c r="P6" s="33"/>
-      <c r="Q6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="R6" s="11">
-        <v>42788</v>
-      </c>
-    </row>
-    <row r="7" spans="2:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q6" s="33"/>
+      <c r="R6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="S6" s="11">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="10">
         <v>4</v>
       </c>
@@ -1991,26 +2061,27 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
+      <c r="I7" s="33"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="3"/>
+      <c r="M7" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="N7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N7" s="34"/>
-      <c r="O7" s="33"/>
+      <c r="O7" s="34"/>
       <c r="P7" s="33"/>
-      <c r="Q7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="R7" s="11">
-        <v>42788</v>
-      </c>
-    </row>
-    <row r="8" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q7" s="33"/>
+      <c r="R7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="S7" s="11">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="10">
         <v>5</v>
       </c>
@@ -2026,24 +2097,25 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
+      <c r="I8" s="33"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
-      <c r="L8" s="33" t="s">
+      <c r="L8" s="3"/>
+      <c r="M8" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="M8" s="4"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="33"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="34"/>
       <c r="P8" s="33"/>
-      <c r="Q8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="R8" s="11">
-        <v>42788</v>
-      </c>
-    </row>
-    <row r="9" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q8" s="33"/>
+      <c r="R8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="S8" s="11">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="10">
         <v>6</v>
       </c>
@@ -2059,22 +2131,23 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+      <c r="I9" s="34"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
-      <c r="N9" s="33"/>
+      <c r="N9" s="3"/>
       <c r="O9" s="33"/>
       <c r="P9" s="33"/>
-      <c r="Q9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="R9" s="11">
-        <v>42788</v>
-      </c>
-    </row>
-    <row r="10" spans="2:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q9" s="33"/>
+      <c r="R9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="S9" s="11">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="10">
         <v>7</v>
       </c>
@@ -2090,24 +2163,25 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="I10" s="34"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="33" t="s">
+      <c r="N10" s="3"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="R10" s="11">
-        <v>42788</v>
-      </c>
-    </row>
-    <row r="11" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q10" s="33"/>
+      <c r="R10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="S10" s="11">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="10">
         <v>8</v>
       </c>
@@ -2117,22 +2191,23 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
+      <c r="I11" s="33"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-      <c r="N11" s="33"/>
+      <c r="N11" s="3"/>
       <c r="O11" s="33"/>
       <c r="P11" s="33"/>
-      <c r="Q11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="R11" s="11">
-        <v>42788</v>
-      </c>
-    </row>
-    <row r="12" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q11" s="33"/>
+      <c r="R11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="S11" s="11">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="10">
         <v>9</v>
       </c>
@@ -2142,22 +2217,23 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="I12" s="33"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
-      <c r="N12" s="33"/>
+      <c r="N12" s="3"/>
       <c r="O12" s="33"/>
       <c r="P12" s="33"/>
-      <c r="Q12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="R12" s="11">
-        <v>42788</v>
-      </c>
-    </row>
-    <row r="13" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q12" s="33"/>
+      <c r="R12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="S12" s="11">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="10">
         <v>10</v>
       </c>
@@ -2167,95 +2243,129 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="I13" s="34"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
-      <c r="N13" s="33"/>
+      <c r="N13" s="3"/>
       <c r="O13" s="33"/>
       <c r="P13" s="33"/>
-      <c r="Q13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="R13" s="11">
-        <v>42788</v>
-      </c>
-    </row>
-    <row r="14" spans="2:19" s="2" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q13" s="33"/>
+      <c r="R13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="S13" s="11">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20" s="2" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="10">
         <v>11</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="C14" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="33"/>
+      <c r="G14" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="I14" s="33" t="s">
+        <v>132</v>
+      </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
-      <c r="N14" s="33"/>
+      <c r="N14" s="3"/>
       <c r="O14" s="33"/>
       <c r="P14" s="33"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="11">
-        <v>42788</v>
-      </c>
-    </row>
-    <row r="15" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q14" s="33"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="11">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="10">
         <v>12</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="3"/>
+      <c r="C15" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="33"/>
+      <c r="G15" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="I15" s="33" t="s">
+        <v>132</v>
+      </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
-      <c r="N15" s="33"/>
+      <c r="N15" s="3"/>
       <c r="O15" s="33"/>
       <c r="P15" s="33"/>
-      <c r="Q15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="R15" s="11">
-        <v>42788</v>
-      </c>
-    </row>
-    <row r="16" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q15" s="33"/>
+      <c r="R15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="S15" s="11">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="10">
         <v>13</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>11</v>
+      </c>
       <c r="F16" s="3"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
-      <c r="I16" s="3"/>
+      <c r="I16" s="34"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-      <c r="N16" s="33"/>
+      <c r="N16" s="3"/>
       <c r="O16" s="33"/>
       <c r="P16" s="33"/>
-      <c r="Q16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="R16" s="11">
-        <v>42788</v>
-      </c>
-    </row>
-    <row r="17" spans="2:20" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q16" s="33"/>
+      <c r="R16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="S16" s="11">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="10">
         <v>14</v>
       </c>
@@ -2265,22 +2375,23 @@
       <c r="F17" s="3"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="3"/>
+      <c r="I17" s="34"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
-      <c r="N17" s="33"/>
+      <c r="N17" s="3"/>
       <c r="O17" s="33"/>
       <c r="P17" s="33"/>
-      <c r="Q17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="R17" s="11">
-        <v>42788</v>
-      </c>
-    </row>
-    <row r="18" spans="2:20" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q17" s="33"/>
+      <c r="R17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="S17" s="11">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="10">
         <v>15</v>
       </c>
@@ -2290,22 +2401,23 @@
       <c r="F18" s="3"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
-      <c r="I18" s="3"/>
+      <c r="I18" s="34"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="33"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="34"/>
       <c r="P18" s="33"/>
-      <c r="Q18" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="R18" s="11">
-        <v>42788</v>
-      </c>
-    </row>
-    <row r="19" spans="2:20" s="2" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q18" s="33"/>
+      <c r="R18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="S18" s="11">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21" s="2" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="10">
         <v>16</v>
       </c>
@@ -2315,20 +2427,21 @@
       <c r="F19" s="3"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
-      <c r="I19" s="3"/>
+      <c r="I19" s="34"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-      <c r="N19" s="33"/>
-      <c r="O19" s="34"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="33"/>
       <c r="P19" s="34"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="11">
-        <v>42788</v>
-      </c>
-    </row>
-    <row r="20" spans="2:20" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q19" s="34"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="11">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="10">
         <v>17</v>
       </c>
@@ -2348,22 +2461,23 @@
       <c r="H20" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="I20" s="3"/>
+      <c r="I20" s="34"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
-      <c r="N20" s="34"/>
+      <c r="N20" s="3"/>
       <c r="O20" s="34"/>
       <c r="P20" s="34"/>
-      <c r="Q20" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="R20" s="11">
-        <v>42788</v>
-      </c>
-    </row>
-    <row r="21" spans="2:20" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q20" s="34"/>
+      <c r="R20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="S20" s="11">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="10">
         <v>18</v>
       </c>
@@ -2383,22 +2497,23 @@
       <c r="H21" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="I21" s="3"/>
+      <c r="I21" s="44"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
-      <c r="N21" s="34"/>
+      <c r="N21" s="3"/>
       <c r="O21" s="34"/>
       <c r="P21" s="34"/>
-      <c r="Q21" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="R21" s="11">
-        <v>42788</v>
-      </c>
-    </row>
-    <row r="22" spans="2:20" s="2" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q21" s="34"/>
+      <c r="R21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="S21" s="11">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21" s="2" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="10"/>
       <c r="C22" s="33" t="s">
         <v>89</v>
@@ -2412,26 +2527,27 @@
       <c r="F22" s="33"/>
       <c r="G22" s="34"/>
       <c r="H22" s="34"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33">
+      <c r="I22" s="34"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33">
         <v>1</v>
       </c>
-      <c r="K22" s="33"/>
       <c r="L22" s="33"/>
-      <c r="M22" s="34" t="s">
+      <c r="M22" s="33"/>
+      <c r="N22" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="N22" s="34" t="s">
+      <c r="O22" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="O22" s="33"/>
       <c r="P22" s="33"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="11">
-        <v>42788</v>
-      </c>
-    </row>
-    <row r="23" spans="2:20" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q22" s="33"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="11">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="10">
         <v>19</v>
       </c>
@@ -2447,22 +2563,23 @@
       <c r="F23" s="3"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
-      <c r="I23" s="3"/>
+      <c r="I23" s="29"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
-      <c r="N23" s="34"/>
-      <c r="O23" s="36"/>
-      <c r="P23" s="42"/>
-      <c r="Q23" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="R23" s="11">
-        <v>42788</v>
-      </c>
-    </row>
-    <row r="24" spans="2:20" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+      <c r="O23" s="34"/>
+      <c r="P23" s="36"/>
+      <c r="Q23" s="42"/>
+      <c r="R23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="S23" s="11">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="10">
         <v>20</v>
       </c>
@@ -2478,22 +2595,22 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
-      <c r="N24" s="34" t="s">
+      <c r="N24" s="3"/>
+      <c r="O24" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="R24" s="11">
-        <v>42788</v>
-      </c>
-    </row>
-    <row r="25" spans="2:20" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="S24" s="11">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="10">
         <v>21</v>
       </c>
@@ -2509,22 +2626,22 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
-      <c r="N25" s="34" t="s">
+      <c r="N25" s="3"/>
+      <c r="O25" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="Q25" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="R25" s="11">
-        <v>42788</v>
-      </c>
-    </row>
-    <row r="26" spans="2:20" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="S25" s="11">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="10">
         <v>22</v>
       </c>
@@ -2544,22 +2661,22 @@
       <c r="H26" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
-      <c r="N26" s="34" t="s">
+      <c r="N26" s="3"/>
+      <c r="O26" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="R26" s="11">
-        <v>42788</v>
-      </c>
-    </row>
-    <row r="27" spans="2:20" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="R26" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="S26" s="11">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="27" spans="2:21" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="10">
         <v>23</v>
       </c>
@@ -2579,54 +2696,70 @@
       <c r="H27" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="I27" s="12"/>
       <c r="J27" s="12"/>
       <c r="K27" s="12"/>
       <c r="L27" s="12"/>
       <c r="M27" s="12"/>
-      <c r="N27" s="34" t="s">
+      <c r="N27" s="12"/>
+      <c r="O27" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="Q27" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="R27" s="11">
-        <v>42788</v>
-      </c>
-    </row>
-    <row r="28" spans="2:20" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L28" s="49" t="s">
+      <c r="R27" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="S27" s="11">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="28" spans="2:21" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M28" s="54" t="s">
         <v>113</v>
       </c>
-      <c r="M28" s="49"/>
-      <c r="N28" s="49"/>
-      <c r="O28" s="49"/>
-      <c r="P28" s="49"/>
-      <c r="Q28" s="49"/>
-      <c r="R28" s="49"/>
-      <c r="S28" s="49"/>
-      <c r="T28" s="39"/>
-    </row>
-    <row r="29" spans="2:20" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="O29" s="45" t="s">
+      <c r="N28" s="54"/>
+      <c r="O28" s="54"/>
+      <c r="P28" s="54"/>
+      <c r="Q28" s="54"/>
+      <c r="R28" s="54"/>
+      <c r="S28" s="54"/>
+      <c r="T28" s="54"/>
+      <c r="U28" s="39"/>
+    </row>
+    <row r="29" spans="2:21" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P29" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="P29" s="46"/>
-      <c r="Q29" s="46"/>
-      <c r="R29" s="46"/>
-      <c r="S29" s="46"/>
+      <c r="Q29" s="48"/>
+      <c r="R29" s="48"/>
+      <c r="S29" s="48"/>
+      <c r="T29" s="48"/>
+    </row>
+    <row r="30" spans="2:21" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I30" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="J30" s="48"/>
+      <c r="K30" s="48"/>
+      <c r="L30" s="48"/>
+      <c r="M30" s="48"/>
+      <c r="N30" s="55"/>
+      <c r="O30" s="55"/>
+      <c r="P30" s="55"/>
+      <c r="Q30" s="55"/>
+      <c r="R30" s="55"/>
+      <c r="S30" s="55"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="O29:S29"/>
+  <mergeCells count="10">
+    <mergeCell ref="I30:M30"/>
     <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:S1"/>
-    <mergeCell ref="L28:S28"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:T1"/>
+    <mergeCell ref="M28:T28"/>
+    <mergeCell ref="F2:I2"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="P29:T29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2638,8 +2771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2664,23 +2797,23 @@
   <sheetData>
     <row r="1" spans="2:18" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44" t="s">
+      <c r="C2" s="46"/>
+      <c r="D2" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="50" t="s">
+      <c r="E2" s="46"/>
+      <c r="F2" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="51"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="44" t="s">
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="J2" s="44"/>
+      <c r="J2" s="46"/>
       <c r="K2" s="22"/>
       <c r="L2" s="22"/>
       <c r="M2" s="22"/>
@@ -3304,10 +3437,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:R23"/>
+  <dimension ref="B1:S23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3318,54 +3451,56 @@
     <col min="4" max="4" width="18" style="2" customWidth="1"/>
     <col min="5" max="5" width="13.375" style="2" customWidth="1"/>
     <col min="6" max="8" width="9" style="2"/>
-    <col min="9" max="9" width="9.875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="16" style="2" customWidth="1"/>
-    <col min="11" max="11" width="11.625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="9" style="2"/>
-    <col min="13" max="13" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10" style="38" customWidth="1"/>
-    <col min="15" max="15" width="16.25" style="38" customWidth="1"/>
-    <col min="16" max="16" width="18.25" style="2" customWidth="1"/>
-    <col min="17" max="17" width="9" style="2"/>
-    <col min="18" max="18" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="2"/>
+    <col min="9" max="9" width="9" style="38"/>
+    <col min="10" max="10" width="9.875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="16" style="2" customWidth="1"/>
+    <col min="12" max="12" width="11.625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="9" style="2"/>
+    <col min="14" max="14" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10" style="38" customWidth="1"/>
+    <col min="16" max="16" width="16.25" style="38" customWidth="1"/>
+    <col min="17" max="17" width="18.25" style="2" customWidth="1"/>
+    <col min="18" max="18" width="9" style="2"/>
+    <col min="19" max="19" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="43" t="s">
+    <row r="1" spans="2:19" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44" t="s">
+      <c r="C2" s="46"/>
+      <c r="D2" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="50" t="s">
+      <c r="E2" s="46"/>
+      <c r="F2" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="51"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="44" t="s">
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="J2" s="44"/>
-      <c r="K2" s="22"/>
+      <c r="K2" s="46"/>
       <c r="L2" s="22"/>
       <c r="M2" s="22"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="22" t="s">
+      <c r="N2" s="22"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="Q2" s="22" t="s">
+      <c r="R2" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="R2" s="23" t="s">
+      <c r="S2" s="23" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="24" t="s">
         <v>2</v>
       </c>
@@ -3387,38 +3522,41 @@
       <c r="H3" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="J3" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="21" t="s">
+      <c r="K3" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="K3" s="21" t="s">
+      <c r="L3" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="L3" s="21" t="s">
+      <c r="M3" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="M3" s="21" t="s">
+      <c r="N3" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="N3" s="35" t="s">
+      <c r="O3" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="O3" s="35" t="s">
+      <c r="P3" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="P3" s="21" t="s">
+      <c r="Q3" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="Q3" s="21" t="s">
+      <c r="R3" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="R3" s="25" t="s">
+      <c r="S3" s="25" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="26">
         <v>1</v>
       </c>
@@ -3434,26 +3572,27 @@
       </c>
       <c r="G4" s="19"/>
       <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19" t="s">
+      <c r="I4" s="33"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="K4" s="19"/>
       <c r="L4" s="19"/>
       <c r="M4" s="19"/>
-      <c r="N4" s="34" t="s">
+      <c r="N4" s="19"/>
+      <c r="O4" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="34"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="R4" s="27">
-        <v>42788</v>
-      </c>
-    </row>
-    <row r="5" spans="2:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P4" s="34"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="S4" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="26">
         <v>2</v>
       </c>
@@ -3473,24 +3612,25 @@
       <c r="H5" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="19"/>
+      <c r="I5" s="34"/>
       <c r="J5" s="19"/>
-      <c r="K5" s="34" t="s">
+      <c r="K5" s="19"/>
+      <c r="L5" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="19"/>
       <c r="M5" s="19"/>
-      <c r="N5" s="33"/>
+      <c r="N5" s="19"/>
       <c r="O5" s="33"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="R5" s="27">
-        <v>42788</v>
-      </c>
-    </row>
-    <row r="6" spans="2:18" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P5" s="33"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="S5" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="26">
         <v>3</v>
       </c>
@@ -3510,49 +3650,51 @@
       <c r="H6" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="I6" s="19"/>
+      <c r="I6" s="34"/>
       <c r="J6" s="19"/>
-      <c r="K6" s="34" t="s">
+      <c r="K6" s="19"/>
+      <c r="L6" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="19"/>
       <c r="M6" s="19"/>
-      <c r="N6" s="33"/>
+      <c r="N6" s="19"/>
       <c r="O6" s="33"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="R6" s="27">
-        <v>42788</v>
-      </c>
-    </row>
-    <row r="7" spans="2:18" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P6" s="33"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="S6" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="26">
         <v>4</v>
       </c>
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
+      <c r="E7" s="33"/>
       <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
+      <c r="G7" s="34"/>
       <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
+      <c r="I7" s="33"/>
       <c r="J7" s="19"/>
       <c r="K7" s="19"/>
       <c r="L7" s="19"/>
       <c r="M7" s="19"/>
-      <c r="N7" s="33"/>
+      <c r="N7" s="19"/>
       <c r="O7" s="33"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="R7" s="27">
-        <v>42788</v>
-      </c>
-    </row>
-    <row r="8" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P7" s="33"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="S7" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="26">
         <v>5</v>
       </c>
@@ -3562,22 +3704,23 @@
       <c r="F8" s="19"/>
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
+      <c r="I8" s="33"/>
       <c r="J8" s="19"/>
       <c r="K8" s="19"/>
       <c r="L8" s="19"/>
       <c r="M8" s="19"/>
-      <c r="N8" s="33"/>
+      <c r="N8" s="19"/>
       <c r="O8" s="33"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="R8" s="27">
-        <v>42788</v>
-      </c>
-    </row>
-    <row r="9" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P8" s="33"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="S8" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="26">
         <v>6</v>
       </c>
@@ -3587,22 +3730,23 @@
       <c r="F9" s="19"/>
       <c r="G9" s="20"/>
       <c r="H9" s="20"/>
-      <c r="I9" s="19"/>
+      <c r="I9" s="34"/>
       <c r="J9" s="19"/>
       <c r="K9" s="19"/>
       <c r="L9" s="19"/>
       <c r="M9" s="19"/>
-      <c r="N9" s="33"/>
+      <c r="N9" s="19"/>
       <c r="O9" s="33"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="R9" s="27">
-        <v>42788</v>
-      </c>
-    </row>
-    <row r="10" spans="2:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P9" s="33"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="S9" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="26">
         <v>7</v>
       </c>
@@ -3612,22 +3756,23 @@
       <c r="F10" s="19"/>
       <c r="G10" s="20"/>
       <c r="H10" s="20"/>
-      <c r="I10" s="19"/>
+      <c r="I10" s="34"/>
       <c r="J10" s="19"/>
       <c r="K10" s="19"/>
       <c r="L10" s="19"/>
       <c r="M10" s="19"/>
-      <c r="N10" s="33"/>
+      <c r="N10" s="19"/>
       <c r="O10" s="33"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="R10" s="27">
-        <v>42788</v>
-      </c>
-    </row>
-    <row r="11" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P10" s="33"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="S10" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="26">
         <v>8</v>
       </c>
@@ -3637,22 +3782,23 @@
       <c r="F11" s="19"/>
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
+      <c r="I11" s="33"/>
       <c r="J11" s="19"/>
       <c r="K11" s="19"/>
       <c r="L11" s="19"/>
       <c r="M11" s="19"/>
-      <c r="N11" s="33"/>
+      <c r="N11" s="19"/>
       <c r="O11" s="33"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="R11" s="27">
-        <v>42788</v>
-      </c>
-    </row>
-    <row r="12" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P11" s="33"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="S11" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="26">
         <v>9</v>
       </c>
@@ -3662,22 +3808,23 @@
       <c r="F12" s="19"/>
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
+      <c r="I12" s="33"/>
       <c r="J12" s="19"/>
       <c r="K12" s="19"/>
       <c r="L12" s="19"/>
       <c r="M12" s="19"/>
-      <c r="N12" s="33"/>
+      <c r="N12" s="19"/>
       <c r="O12" s="33"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="R12" s="27">
-        <v>42788</v>
-      </c>
-    </row>
-    <row r="13" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P12" s="33"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="S12" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="26">
         <v>10</v>
       </c>
@@ -3687,22 +3834,23 @@
       <c r="F13" s="19"/>
       <c r="G13" s="20"/>
       <c r="H13" s="20"/>
-      <c r="I13" s="19"/>
+      <c r="I13" s="34"/>
       <c r="J13" s="19"/>
       <c r="K13" s="19"/>
       <c r="L13" s="19"/>
       <c r="M13" s="19"/>
-      <c r="N13" s="33"/>
+      <c r="N13" s="19"/>
       <c r="O13" s="33"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="R13" s="27">
-        <v>42788</v>
-      </c>
-    </row>
-    <row r="14" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P13" s="33"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="S13" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="26">
         <v>11</v>
       </c>
@@ -3712,22 +3860,23 @@
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
       <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
+      <c r="I14" s="33"/>
       <c r="J14" s="19"/>
       <c r="K14" s="19"/>
       <c r="L14" s="19"/>
       <c r="M14" s="19"/>
-      <c r="N14" s="33"/>
+      <c r="N14" s="19"/>
       <c r="O14" s="33"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="R14" s="27">
-        <v>42788</v>
-      </c>
-    </row>
-    <row r="15" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P14" s="33"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="S14" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="26">
         <v>12</v>
       </c>
@@ -3737,47 +3886,49 @@
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
       <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
+      <c r="I15" s="33"/>
       <c r="J15" s="19"/>
       <c r="K15" s="19"/>
       <c r="L15" s="19"/>
       <c r="M15" s="19"/>
-      <c r="N15" s="33"/>
+      <c r="N15" s="19"/>
       <c r="O15" s="33"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="R15" s="27">
-        <v>42788</v>
-      </c>
-    </row>
-    <row r="16" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P15" s="33"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="S15" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="26">
         <v>13</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="19"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
       <c r="J16" s="19"/>
       <c r="K16" s="19"/>
       <c r="L16" s="19"/>
       <c r="M16" s="19"/>
-      <c r="N16" s="33"/>
+      <c r="N16" s="19"/>
       <c r="O16" s="33"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="R16" s="27">
-        <v>42788</v>
-      </c>
-    </row>
-    <row r="17" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P16" s="33"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="S16" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="26">
         <v>14</v>
       </c>
@@ -3787,22 +3938,23 @@
       <c r="F17" s="19"/>
       <c r="G17" s="20"/>
       <c r="H17" s="20"/>
-      <c r="I17" s="19"/>
+      <c r="I17" s="34"/>
       <c r="J17" s="19"/>
       <c r="K17" s="19"/>
       <c r="L17" s="19"/>
       <c r="M17" s="19"/>
-      <c r="N17" s="33"/>
+      <c r="N17" s="19"/>
       <c r="O17" s="33"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="R17" s="27">
-        <v>42788</v>
-      </c>
-    </row>
-    <row r="18" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P17" s="33"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="S17" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="26">
         <v>15</v>
       </c>
@@ -3812,22 +3964,23 @@
       <c r="F18" s="19"/>
       <c r="G18" s="20"/>
       <c r="H18" s="20"/>
-      <c r="I18" s="19"/>
+      <c r="I18" s="34"/>
       <c r="J18" s="19"/>
       <c r="K18" s="19"/>
       <c r="L18" s="19"/>
       <c r="M18" s="19"/>
-      <c r="N18" s="33"/>
+      <c r="N18" s="19"/>
       <c r="O18" s="33"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="R18" s="27">
-        <v>42788</v>
-      </c>
-    </row>
-    <row r="19" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P18" s="33"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="S18" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="26">
         <v>16</v>
       </c>
@@ -3843,28 +3996,29 @@
       <c r="F19" s="19"/>
       <c r="G19" s="20"/>
       <c r="H19" s="20"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19">
+      <c r="I19" s="34"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19">
         <v>1</v>
       </c>
-      <c r="K19" s="19"/>
       <c r="L19" s="19"/>
       <c r="M19" s="19"/>
-      <c r="N19" s="34" t="s">
+      <c r="N19" s="19"/>
+      <c r="O19" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="O19" s="34"/>
-      <c r="P19" s="19" t="s">
+      <c r="P19" s="34"/>
+      <c r="Q19" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="Q19" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="R19" s="27">
-        <v>42788</v>
-      </c>
-    </row>
-    <row r="20" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R19" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="S19" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="26">
         <v>17</v>
       </c>
@@ -3880,24 +4034,25 @@
       <c r="F20" s="19"/>
       <c r="G20" s="20"/>
       <c r="H20" s="20"/>
-      <c r="I20" s="19"/>
+      <c r="I20" s="34"/>
       <c r="J20" s="19"/>
       <c r="K20" s="19"/>
       <c r="L20" s="19"/>
       <c r="M20" s="19"/>
-      <c r="N20" s="34" t="s">
+      <c r="N20" s="19"/>
+      <c r="O20" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="O20" s="34"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="R20" s="27">
-        <v>42788</v>
-      </c>
-    </row>
-    <row r="21" spans="2:18" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P20" s="34"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="S20" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="26">
         <v>18</v>
       </c>
@@ -3913,24 +4068,25 @@
       <c r="F21" s="19"/>
       <c r="G21" s="29"/>
       <c r="H21" s="29"/>
-      <c r="I21" s="19"/>
+      <c r="I21" s="44"/>
       <c r="J21" s="19"/>
       <c r="K21" s="19"/>
       <c r="L21" s="19"/>
       <c r="M21" s="19"/>
-      <c r="N21" s="34" t="s">
+      <c r="N21" s="19"/>
+      <c r="O21" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="O21" s="34"/>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="R21" s="27">
-        <v>42788</v>
-      </c>
-    </row>
-    <row r="22" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P21" s="34"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="S21" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="26"/>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
@@ -3938,18 +4094,19 @@
       <c r="F22" s="19"/>
       <c r="G22" s="20"/>
       <c r="H22" s="20"/>
-      <c r="I22" s="19"/>
+      <c r="I22" s="34"/>
       <c r="J22" s="19"/>
       <c r="K22" s="19"/>
       <c r="L22" s="19"/>
       <c r="M22" s="19"/>
-      <c r="N22" s="33"/>
+      <c r="N22" s="19"/>
       <c r="O22" s="33"/>
-      <c r="P22" s="19"/>
+      <c r="P22" s="33"/>
       <c r="Q22" s="19"/>
-      <c r="R22" s="27"/>
-    </row>
-    <row r="23" spans="2:18" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="R22" s="19"/>
+      <c r="S22" s="27"/>
+    </row>
+    <row r="23" spans="2:19" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="32"/>
       <c r="C23" s="28"/>
       <c r="D23" s="28"/>
@@ -3957,23 +4114,1408 @@
       <c r="F23" s="28"/>
       <c r="G23" s="29"/>
       <c r="H23" s="29"/>
-      <c r="I23" s="28"/>
+      <c r="I23" s="29"/>
       <c r="J23" s="28"/>
       <c r="K23" s="28"/>
       <c r="L23" s="28"/>
       <c r="M23" s="28"/>
-      <c r="N23" s="36"/>
+      <c r="N23" s="28"/>
       <c r="O23" s="36"/>
-      <c r="P23" s="28"/>
+      <c r="P23" s="36"/>
       <c r="Q23" s="28"/>
-      <c r="R23" s="30"/>
+      <c r="R23" s="28"/>
+      <c r="S23" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="F2:I2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:S23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="1.625" style="38" customWidth="1"/>
+    <col min="2" max="2" width="5" style="38" customWidth="1"/>
+    <col min="3" max="3" width="14.875" style="38" customWidth="1"/>
+    <col min="4" max="4" width="18" style="38" customWidth="1"/>
+    <col min="5" max="5" width="13.375" style="38" customWidth="1"/>
+    <col min="6" max="9" width="9" style="38"/>
+    <col min="10" max="10" width="12.5" style="38" customWidth="1"/>
+    <col min="11" max="11" width="10.375" style="38" customWidth="1"/>
+    <col min="12" max="12" width="11.25" style="38" customWidth="1"/>
+    <col min="13" max="13" width="9" style="38"/>
+    <col min="14" max="14" width="10" style="38" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10" style="38" customWidth="1"/>
+    <col min="16" max="17" width="16.25" style="38" customWidth="1"/>
+    <col min="18" max="18" width="9" style="38"/>
+    <col min="19" max="19" width="10" style="38" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="38"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:19" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2" s="46"/>
+      <c r="F2" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="K2" s="46"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="23"/>
+    </row>
+    <row r="3" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="J3" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="K3" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="M3" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="N3" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="P3" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q3" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="R3" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="S3" s="25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="26">
+        <v>1</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="S4" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="26">
+        <v>2</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="33"/>
+      <c r="N5" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5" s="34"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="S5" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="26">
+        <v>3</v>
+      </c>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="S6" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="26">
+        <v>4</v>
+      </c>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="S7" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="26">
+        <v>5</v>
+      </c>
+      <c r="C8" s="33"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="S8" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="26">
+        <v>6</v>
+      </c>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="S9" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="26">
+        <v>7</v>
+      </c>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="S10" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="26">
+        <v>8</v>
+      </c>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="S11" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="26">
+        <v>9</v>
+      </c>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="S12" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="26">
+        <v>10</v>
+      </c>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="33"/>
+      <c r="Q13" s="33"/>
+      <c r="R13" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="S13" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="26">
+        <v>11</v>
+      </c>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="S14" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="26">
+        <v>12</v>
+      </c>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="33"/>
+      <c r="R15" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="S15" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="26">
+        <v>13</v>
+      </c>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="S16" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="26">
+        <v>14</v>
+      </c>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="33"/>
+      <c r="P17" s="33"/>
+      <c r="Q17" s="33"/>
+      <c r="R17" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="S17" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="26">
+        <v>15</v>
+      </c>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="33"/>
+      <c r="P18" s="33"/>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="S18" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="26">
+        <v>16</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" s="33"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33">
+        <v>1</v>
+      </c>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="O19" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="P19" s="34"/>
+      <c r="Q19" s="34"/>
+      <c r="R19" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="S19" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="26">
+        <v>17</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" s="33"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="P20" s="34"/>
+      <c r="Q20" s="34"/>
+      <c r="R20" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="S20" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="26">
+        <v>18</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" s="33"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="P21" s="34"/>
+      <c r="Q21" s="34"/>
+      <c r="R21" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="S21" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="26">
+        <v>19</v>
+      </c>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="33"/>
+      <c r="P22" s="33"/>
+      <c r="Q22" s="33"/>
+      <c r="R22" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="S22" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="32">
+        <v>20</v>
+      </c>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="36"/>
+      <c r="P23" s="36"/>
+      <c r="Q23" s="36"/>
+      <c r="R23" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="S23" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:K2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:S23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="1.625" style="38" customWidth="1"/>
+    <col min="2" max="2" width="5" style="38" customWidth="1"/>
+    <col min="3" max="3" width="14.875" style="38" customWidth="1"/>
+    <col min="4" max="4" width="18" style="38" customWidth="1"/>
+    <col min="5" max="5" width="13.375" style="38" customWidth="1"/>
+    <col min="6" max="9" width="9" style="38"/>
+    <col min="10" max="10" width="12.5" style="38" customWidth="1"/>
+    <col min="11" max="11" width="10.375" style="38" customWidth="1"/>
+    <col min="12" max="12" width="11.25" style="38" customWidth="1"/>
+    <col min="13" max="13" width="9" style="38"/>
+    <col min="14" max="14" width="10" style="38" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10" style="38" customWidth="1"/>
+    <col min="16" max="17" width="16.25" style="38" customWidth="1"/>
+    <col min="18" max="18" width="9" style="38"/>
+    <col min="19" max="19" width="10" style="38" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="38"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:19" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="E2" s="46"/>
+      <c r="F2" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="46" t="s">
+        <v>130</v>
+      </c>
+      <c r="K2" s="46"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="23"/>
+    </row>
+    <row r="3" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="J3" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="K3" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="M3" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="N3" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="P3" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q3" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="R3" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="S3" s="25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="26">
+        <v>1</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="S4" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="26">
+        <v>2</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="33"/>
+      <c r="N5" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5" s="34"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="S5" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="26">
+        <v>3</v>
+      </c>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="S6" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="26">
+        <v>4</v>
+      </c>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="S7" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="26">
+        <v>5</v>
+      </c>
+      <c r="C8" s="33"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="S8" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="26">
+        <v>6</v>
+      </c>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="S9" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="26">
+        <v>7</v>
+      </c>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="S10" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="26">
+        <v>8</v>
+      </c>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="S11" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="26">
+        <v>9</v>
+      </c>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="S12" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="26">
+        <v>10</v>
+      </c>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="33"/>
+      <c r="Q13" s="33"/>
+      <c r="R13" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="S13" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="26">
+        <v>11</v>
+      </c>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="S14" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="26">
+        <v>12</v>
+      </c>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="33"/>
+      <c r="R15" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="S15" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="26">
+        <v>13</v>
+      </c>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="S16" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="26">
+        <v>14</v>
+      </c>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="33"/>
+      <c r="P17" s="33"/>
+      <c r="Q17" s="33"/>
+      <c r="R17" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="S17" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="26">
+        <v>15</v>
+      </c>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="33"/>
+      <c r="P18" s="33"/>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="S18" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="26">
+        <v>16</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" s="33"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33">
+        <v>1</v>
+      </c>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="O19" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="P19" s="34"/>
+      <c r="Q19" s="34"/>
+      <c r="R19" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="S19" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="26">
+        <v>17</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" s="33"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="P20" s="34"/>
+      <c r="Q20" s="34"/>
+      <c r="R20" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="S20" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="26">
+        <v>18</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" s="33"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="P21" s="34"/>
+      <c r="Q21" s="34"/>
+      <c r="R21" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="S21" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="26">
+        <v>19</v>
+      </c>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="33"/>
+      <c r="P22" s="33"/>
+      <c r="Q22" s="33"/>
+      <c r="R22" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="S22" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="32">
+        <v>20</v>
+      </c>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="36"/>
+      <c r="P23" s="36"/>
+      <c r="Q23" s="36"/>
+      <c r="R23" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="S23" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/generators/app/test_db.xlsx
+++ b/generators/app/test_db.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8025" tabRatio="767" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8025" tabRatio="767" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="索引" sheetId="7" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="134">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -499,10 +499,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>as</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -535,17 +531,14 @@
   </si>
   <si>
     <t>type</t>
-  </si>
-  <si>
-    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scopeField 在 sequelize 中，可以使用 scope 实现一表对多表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>scopeField</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>scopeField 在 sequelize 中，可以使用 scope 实现一表对多表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -968,6 +961,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -980,15 +976,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -998,8 +985,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1335,10 +1328,10 @@
   <sheetData>
     <row r="1" spans="1:14" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="45"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
       <c r="E2" s="6"/>
       <c r="F2" s="7"/>
     </row>
@@ -1409,15 +1402,15 @@
       <c r="F6" s="11">
         <v>42788</v>
       </c>
-      <c r="H6" s="47" t="s">
+      <c r="H6" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
     </row>
     <row r="7" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
@@ -1457,12 +1450,12 @@
       <c r="F8" s="11">
         <v>42788</v>
       </c>
-      <c r="H8" s="47" t="s">
+      <c r="H8" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
       <c r="L8" s="38"/>
       <c r="M8" s="38"/>
       <c r="N8" s="38"/>
@@ -1482,12 +1475,12 @@
       <c r="F9" s="11">
         <v>42788</v>
       </c>
-      <c r="H9" s="47" t="s">
+      <c r="H9" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
       <c r="L9" s="38"/>
       <c r="M9" s="38"/>
       <c r="N9" s="38"/>
@@ -1803,8 +1796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1831,49 +1824,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:20" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52" t="s">
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="53" t="s">
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
     </row>
     <row r="2" spans="2:20" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46" t="s">
+      <c r="C2" s="47"/>
+      <c r="D2" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="49" t="s">
+      <c r="E2" s="47"/>
+      <c r="F2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="46" t="s">
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="46"/>
+      <c r="K2" s="47"/>
       <c r="L2" s="17"/>
       <c r="M2" s="17"/>
       <c r="N2" s="17"/>
@@ -1906,7 +1899,7 @@
         <v>56</v>
       </c>
       <c r="I3" s="35" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>9</v>
@@ -2264,10 +2257,10 @@
         <v>11</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E14" s="33" t="s">
         <v>11</v>
@@ -2277,10 +2270,10 @@
         <v>10</v>
       </c>
       <c r="H14" s="33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I14" s="33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -2300,10 +2293,10 @@
         <v>12</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E15" s="33" t="s">
         <v>11</v>
@@ -2313,10 +2306,10 @@
         <v>10</v>
       </c>
       <c r="H15" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="I15" s="33" t="s">
         <v>131</v>
-      </c>
-      <c r="I15" s="33" t="s">
-        <v>132</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -2338,10 +2331,10 @@
         <v>13</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E16" s="33" t="s">
         <v>11</v>
@@ -2712,54 +2705,54 @@
       </c>
     </row>
     <row r="28" spans="2:21" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M28" s="54" t="s">
+      <c r="M28" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="N28" s="54"/>
-      <c r="O28" s="54"/>
-      <c r="P28" s="54"/>
-      <c r="Q28" s="54"/>
-      <c r="R28" s="54"/>
-      <c r="S28" s="54"/>
-      <c r="T28" s="54"/>
+      <c r="N28" s="52"/>
+      <c r="O28" s="52"/>
+      <c r="P28" s="52"/>
+      <c r="Q28" s="52"/>
+      <c r="R28" s="52"/>
+      <c r="S28" s="52"/>
+      <c r="T28" s="52"/>
       <c r="U28" s="39"/>
     </row>
     <row r="29" spans="2:21" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="P29" s="47" t="s">
+      <c r="P29" s="48" t="s">
         <v>122</v>
       </c>
-      <c r="Q29" s="48"/>
-      <c r="R29" s="48"/>
-      <c r="S29" s="48"/>
-      <c r="T29" s="48"/>
+      <c r="Q29" s="49"/>
+      <c r="R29" s="49"/>
+      <c r="S29" s="49"/>
+      <c r="T29" s="49"/>
     </row>
     <row r="30" spans="2:21" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I30" s="47" t="s">
-        <v>135</v>
-      </c>
-      <c r="J30" s="48"/>
-      <c r="K30" s="48"/>
-      <c r="L30" s="48"/>
-      <c r="M30" s="48"/>
-      <c r="N30" s="55"/>
-      <c r="O30" s="55"/>
-      <c r="P30" s="55"/>
-      <c r="Q30" s="55"/>
-      <c r="R30" s="55"/>
-      <c r="S30" s="55"/>
+      <c r="I30" s="48" t="s">
+        <v>132</v>
+      </c>
+      <c r="J30" s="49"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="49"/>
+      <c r="M30" s="49"/>
+      <c r="N30" s="45"/>
+      <c r="O30" s="45"/>
+      <c r="P30" s="45"/>
+      <c r="Q30" s="45"/>
+      <c r="R30" s="45"/>
+      <c r="S30" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="P29:T29"/>
     <mergeCell ref="I30:M30"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="K1:T1"/>
     <mergeCell ref="M28:T28"/>
     <mergeCell ref="F2:I2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="P29:T29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2771,7 +2764,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
@@ -2797,23 +2790,23 @@
   <sheetData>
     <row r="1" spans="2:18" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46" t="s">
+      <c r="C2" s="47"/>
+      <c r="D2" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="49" t="s">
+      <c r="E2" s="47"/>
+      <c r="F2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="46" t="s">
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="J2" s="46"/>
+      <c r="J2" s="47"/>
       <c r="K2" s="22"/>
       <c r="L2" s="22"/>
       <c r="M2" s="22"/>
@@ -3437,10 +3430,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:S23"/>
+  <dimension ref="B1:R23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3451,56 +3444,54 @@
     <col min="4" max="4" width="18" style="2" customWidth="1"/>
     <col min="5" max="5" width="13.375" style="2" customWidth="1"/>
     <col min="6" max="8" width="9" style="2"/>
-    <col min="9" max="9" width="9" style="38"/>
-    <col min="10" max="10" width="9.875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="16" style="2" customWidth="1"/>
-    <col min="12" max="12" width="11.625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="9" style="2"/>
-    <col min="14" max="14" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10" style="38" customWidth="1"/>
-    <col min="16" max="16" width="16.25" style="38" customWidth="1"/>
-    <col min="17" max="17" width="18.25" style="2" customWidth="1"/>
-    <col min="18" max="18" width="9" style="2"/>
-    <col min="19" max="19" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="2"/>
+    <col min="9" max="9" width="9.875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="16" style="2" customWidth="1"/>
+    <col min="11" max="11" width="11.625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="9" style="2"/>
+    <col min="13" max="13" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10" style="38" customWidth="1"/>
+    <col min="15" max="15" width="16.25" style="38" customWidth="1"/>
+    <col min="16" max="16" width="18.25" style="2" customWidth="1"/>
+    <col min="17" max="17" width="9" style="2"/>
+    <col min="18" max="18" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="45" t="s">
+    <row r="1" spans="2:18" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46" t="s">
+      <c r="C2" s="47"/>
+      <c r="D2" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="49" t="s">
+      <c r="E2" s="47"/>
+      <c r="F2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="46" t="s">
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="K2" s="46"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="22"/>
       <c r="L2" s="22"/>
       <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="40"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="22" t="s">
+        <v>57</v>
+      </c>
       <c r="Q2" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="R2" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="S2" s="23" t="s">
+      <c r="R2" s="23" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="24" t="s">
         <v>2</v>
       </c>
@@ -3522,41 +3513,38 @@
       <c r="H3" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="I3" s="35" t="s">
-        <v>123</v>
+      <c r="I3" s="21" t="s">
+        <v>9</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="K3" s="21" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="L3" s="21" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="M3" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="N3" s="21" t="s">
         <v>61</v>
       </c>
+      <c r="N3" s="35" t="s">
+        <v>94</v>
+      </c>
       <c r="O3" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="P3" s="35" t="s">
         <v>115</v>
       </c>
+      <c r="P3" s="21" t="s">
+        <v>62</v>
+      </c>
       <c r="Q3" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="R3" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="S3" s="25" t="s">
+      <c r="R3" s="25" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="26">
         <v>1</v>
       </c>
@@ -3572,27 +3560,26 @@
       </c>
       <c r="G4" s="19"/>
       <c r="H4" s="19"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19" t="s">
+      <c r="I4" s="19"/>
+      <c r="J4" s="19" t="s">
         <v>84</v>
       </c>
+      <c r="K4" s="19"/>
       <c r="L4" s="19"/>
       <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="34" t="s">
+      <c r="N4" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="S4" s="27">
-        <v>42788</v>
-      </c>
-    </row>
-    <row r="5" spans="2:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O4" s="34"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="R4" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="26">
         <v>2</v>
       </c>
@@ -3612,25 +3599,24 @@
       <c r="H5" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="34"/>
+      <c r="I5" s="19"/>
       <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="34" t="s">
+      <c r="K5" s="34" t="s">
         <v>10</v>
       </c>
+      <c r="L5" s="19"/>
       <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
+      <c r="N5" s="33"/>
       <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="S5" s="27">
-        <v>42788</v>
-      </c>
-    </row>
-    <row r="6" spans="2:19" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="R5" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="26">
         <v>3</v>
       </c>
@@ -3650,25 +3636,24 @@
       <c r="H6" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="I6" s="34"/>
+      <c r="I6" s="19"/>
       <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="34" t="s">
+      <c r="K6" s="34" t="s">
         <v>10</v>
       </c>
+      <c r="L6" s="19"/>
       <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
+      <c r="N6" s="33"/>
       <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="S6" s="27">
-        <v>42788</v>
-      </c>
-    </row>
-    <row r="7" spans="2:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="R6" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="26">
         <v>4</v>
       </c>
@@ -3678,23 +3663,22 @@
       <c r="F7" s="19"/>
       <c r="G7" s="34"/>
       <c r="H7" s="19"/>
-      <c r="I7" s="33"/>
+      <c r="I7" s="19"/>
       <c r="J7" s="19"/>
       <c r="K7" s="19"/>
       <c r="L7" s="19"/>
       <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
+      <c r="N7" s="33"/>
       <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="S7" s="27">
-        <v>42788</v>
-      </c>
-    </row>
-    <row r="8" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="R7" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="26">
         <v>5</v>
       </c>
@@ -3704,23 +3688,22 @@
       <c r="F8" s="19"/>
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
-      <c r="I8" s="33"/>
+      <c r="I8" s="19"/>
       <c r="J8" s="19"/>
       <c r="K8" s="19"/>
       <c r="L8" s="19"/>
       <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
+      <c r="N8" s="33"/>
       <c r="O8" s="33"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="S8" s="27">
-        <v>42788</v>
-      </c>
-    </row>
-    <row r="9" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="R8" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="26">
         <v>6</v>
       </c>
@@ -3730,23 +3713,22 @@
       <c r="F9" s="19"/>
       <c r="G9" s="20"/>
       <c r="H9" s="20"/>
-      <c r="I9" s="34"/>
+      <c r="I9" s="19"/>
       <c r="J9" s="19"/>
       <c r="K9" s="19"/>
       <c r="L9" s="19"/>
       <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
+      <c r="N9" s="33"/>
       <c r="O9" s="33"/>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="S9" s="27">
-        <v>42788</v>
-      </c>
-    </row>
-    <row r="10" spans="2:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="R9" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="26">
         <v>7</v>
       </c>
@@ -3756,23 +3738,22 @@
       <c r="F10" s="19"/>
       <c r="G10" s="20"/>
       <c r="H10" s="20"/>
-      <c r="I10" s="34"/>
+      <c r="I10" s="19"/>
       <c r="J10" s="19"/>
       <c r="K10" s="19"/>
       <c r="L10" s="19"/>
       <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
+      <c r="N10" s="33"/>
       <c r="O10" s="33"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="S10" s="27">
-        <v>42788</v>
-      </c>
-    </row>
-    <row r="11" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="R10" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="26">
         <v>8</v>
       </c>
@@ -3782,23 +3763,22 @@
       <c r="F11" s="19"/>
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
-      <c r="I11" s="33"/>
+      <c r="I11" s="19"/>
       <c r="J11" s="19"/>
       <c r="K11" s="19"/>
       <c r="L11" s="19"/>
       <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
+      <c r="N11" s="33"/>
       <c r="O11" s="33"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="S11" s="27">
-        <v>42788</v>
-      </c>
-    </row>
-    <row r="12" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="R11" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="26">
         <v>9</v>
       </c>
@@ -3808,23 +3788,22 @@
       <c r="F12" s="19"/>
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
-      <c r="I12" s="33"/>
+      <c r="I12" s="19"/>
       <c r="J12" s="19"/>
       <c r="K12" s="19"/>
       <c r="L12" s="19"/>
       <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
+      <c r="N12" s="33"/>
       <c r="O12" s="33"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="S12" s="27">
-        <v>42788</v>
-      </c>
-    </row>
-    <row r="13" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="R12" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="26">
         <v>10</v>
       </c>
@@ -3834,23 +3813,22 @@
       <c r="F13" s="19"/>
       <c r="G13" s="20"/>
       <c r="H13" s="20"/>
-      <c r="I13" s="34"/>
+      <c r="I13" s="19"/>
       <c r="J13" s="19"/>
       <c r="K13" s="19"/>
       <c r="L13" s="19"/>
       <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
+      <c r="N13" s="33"/>
       <c r="O13" s="33"/>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="S13" s="27">
-        <v>42788</v>
-      </c>
-    </row>
-    <row r="14" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="R13" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="26">
         <v>11</v>
       </c>
@@ -3860,23 +3838,22 @@
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
       <c r="H14" s="19"/>
-      <c r="I14" s="33"/>
+      <c r="I14" s="19"/>
       <c r="J14" s="19"/>
       <c r="K14" s="19"/>
       <c r="L14" s="19"/>
       <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
+      <c r="N14" s="33"/>
       <c r="O14" s="33"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="S14" s="27">
-        <v>42788</v>
-      </c>
-    </row>
-    <row r="15" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="R14" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="26">
         <v>12</v>
       </c>
@@ -3886,23 +3863,22 @@
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
       <c r="H15" s="19"/>
-      <c r="I15" s="33"/>
+      <c r="I15" s="19"/>
       <c r="J15" s="19"/>
       <c r="K15" s="19"/>
       <c r="L15" s="19"/>
       <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
+      <c r="N15" s="33"/>
       <c r="O15" s="33"/>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="S15" s="27">
-        <v>42788</v>
-      </c>
-    </row>
-    <row r="16" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="R15" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="26">
         <v>13</v>
       </c>
@@ -3912,23 +3888,22 @@
       <c r="F16" s="33"/>
       <c r="G16" s="34"/>
       <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
+      <c r="I16" s="19"/>
       <c r="J16" s="19"/>
       <c r="K16" s="19"/>
       <c r="L16" s="19"/>
       <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
+      <c r="N16" s="33"/>
       <c r="O16" s="33"/>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="S16" s="27">
-        <v>42788</v>
-      </c>
-    </row>
-    <row r="17" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="R16" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="26">
         <v>14</v>
       </c>
@@ -3938,23 +3913,22 @@
       <c r="F17" s="19"/>
       <c r="G17" s="20"/>
       <c r="H17" s="20"/>
-      <c r="I17" s="34"/>
+      <c r="I17" s="19"/>
       <c r="J17" s="19"/>
       <c r="K17" s="19"/>
       <c r="L17" s="19"/>
       <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
+      <c r="N17" s="33"/>
       <c r="O17" s="33"/>
-      <c r="P17" s="33"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="S17" s="27">
-        <v>42788</v>
-      </c>
-    </row>
-    <row r="18" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="R17" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="26">
         <v>15</v>
       </c>
@@ -3964,23 +3938,22 @@
       <c r="F18" s="19"/>
       <c r="G18" s="20"/>
       <c r="H18" s="20"/>
-      <c r="I18" s="34"/>
+      <c r="I18" s="19"/>
       <c r="J18" s="19"/>
       <c r="K18" s="19"/>
       <c r="L18" s="19"/>
       <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
+      <c r="N18" s="33"/>
       <c r="O18" s="33"/>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="S18" s="27">
-        <v>42788</v>
-      </c>
-    </row>
-    <row r="19" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="R18" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="26">
         <v>16</v>
       </c>
@@ -3996,29 +3969,28 @@
       <c r="F19" s="19"/>
       <c r="G19" s="20"/>
       <c r="H19" s="20"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19">
+      <c r="I19" s="19"/>
+      <c r="J19" s="19">
         <v>1</v>
       </c>
+      <c r="K19" s="19"/>
       <c r="L19" s="19"/>
       <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="34" t="s">
+      <c r="N19" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="P19" s="34"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="19" t="s">
+        <v>53</v>
+      </c>
       <c r="Q19" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="R19" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="S19" s="27">
-        <v>42788</v>
-      </c>
-    </row>
-    <row r="20" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="R19" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="26">
         <v>17</v>
       </c>
@@ -4034,25 +4006,24 @@
       <c r="F20" s="19"/>
       <c r="G20" s="20"/>
       <c r="H20" s="20"/>
-      <c r="I20" s="34"/>
+      <c r="I20" s="19"/>
       <c r="J20" s="19"/>
       <c r="K20" s="19"/>
       <c r="L20" s="19"/>
       <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="34" t="s">
+      <c r="N20" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="19"/>
-      <c r="R20" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="S20" s="27">
-        <v>42788</v>
-      </c>
-    </row>
-    <row r="21" spans="2:19" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O20" s="34"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="R20" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="26">
         <v>18</v>
       </c>
@@ -4068,25 +4039,24 @@
       <c r="F21" s="19"/>
       <c r="G21" s="29"/>
       <c r="H21" s="29"/>
-      <c r="I21" s="44"/>
+      <c r="I21" s="19"/>
       <c r="J21" s="19"/>
       <c r="K21" s="19"/>
       <c r="L21" s="19"/>
       <c r="M21" s="19"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="34" t="s">
+      <c r="N21" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="P21" s="34"/>
-      <c r="Q21" s="19"/>
-      <c r="R21" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="S21" s="27">
-        <v>42788</v>
-      </c>
-    </row>
-    <row r="22" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O21" s="34"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="R21" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="26"/>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
@@ -4094,19 +4064,18 @@
       <c r="F22" s="19"/>
       <c r="G22" s="20"/>
       <c r="H22" s="20"/>
-      <c r="I22" s="34"/>
+      <c r="I22" s="19"/>
       <c r="J22" s="19"/>
       <c r="K22" s="19"/>
       <c r="L22" s="19"/>
       <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
+      <c r="N22" s="33"/>
       <c r="O22" s="33"/>
-      <c r="P22" s="33"/>
+      <c r="P22" s="19"/>
       <c r="Q22" s="19"/>
-      <c r="R22" s="19"/>
-      <c r="S22" s="27"/>
-    </row>
-    <row r="23" spans="2:19" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="R22" s="27"/>
+    </row>
+    <row r="23" spans="2:18" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="32"/>
       <c r="C23" s="28"/>
       <c r="D23" s="28"/>
@@ -4114,24 +4083,23 @@
       <c r="F23" s="28"/>
       <c r="G23" s="29"/>
       <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
+      <c r="I23" s="28"/>
       <c r="J23" s="28"/>
       <c r="K23" s="28"/>
       <c r="L23" s="28"/>
       <c r="M23" s="28"/>
-      <c r="N23" s="28"/>
+      <c r="N23" s="36"/>
       <c r="O23" s="36"/>
-      <c r="P23" s="36"/>
+      <c r="P23" s="28"/>
       <c r="Q23" s="28"/>
-      <c r="R23" s="28"/>
-      <c r="S23" s="30"/>
+      <c r="R23" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="F2:H2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4141,10 +4109,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:S23"/>
+  <dimension ref="B1:R23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4154,49 +4122,48 @@
     <col min="3" max="3" width="14.875" style="38" customWidth="1"/>
     <col min="4" max="4" width="18" style="38" customWidth="1"/>
     <col min="5" max="5" width="13.375" style="38" customWidth="1"/>
-    <col min="6" max="9" width="9" style="38"/>
-    <col min="10" max="10" width="12.5" style="38" customWidth="1"/>
-    <col min="11" max="11" width="10.375" style="38" customWidth="1"/>
-    <col min="12" max="12" width="11.25" style="38" customWidth="1"/>
-    <col min="13" max="13" width="9" style="38"/>
-    <col min="14" max="14" width="10" style="38" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10" style="38" customWidth="1"/>
-    <col min="16" max="17" width="16.25" style="38" customWidth="1"/>
-    <col min="18" max="18" width="9" style="38"/>
-    <col min="19" max="19" width="10" style="38" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="38"/>
+    <col min="6" max="8" width="9" style="38"/>
+    <col min="9" max="9" width="12.5" style="38" customWidth="1"/>
+    <col min="10" max="10" width="10.375" style="38" customWidth="1"/>
+    <col min="11" max="11" width="11.25" style="38" customWidth="1"/>
+    <col min="12" max="12" width="9" style="38"/>
+    <col min="13" max="13" width="10" style="38" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10" style="38" customWidth="1"/>
+    <col min="15" max="16" width="16.25" style="38" customWidth="1"/>
+    <col min="17" max="17" width="9" style="38"/>
+    <col min="18" max="18" width="10" style="38" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="45" t="s">
+    <row r="1" spans="2:18" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46" t="s">
-        <v>125</v>
-      </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="49" t="s">
+      <c r="C2" s="47"/>
+      <c r="D2" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" s="47"/>
+      <c r="F2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="46" t="s">
-        <v>127</v>
-      </c>
-      <c r="K2" s="46"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="47" t="s">
+        <v>126</v>
+      </c>
+      <c r="J2" s="47"/>
+      <c r="K2" s="43"/>
       <c r="L2" s="43"/>
       <c r="M2" s="43"/>
       <c r="N2" s="43"/>
       <c r="O2" s="43"/>
       <c r="P2" s="43"/>
       <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="23"/>
-    </row>
-    <row r="3" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R2" s="23"/>
+    </row>
+    <row r="3" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="24" t="s">
         <v>70</v>
       </c>
@@ -4219,40 +4186,37 @@
         <v>72</v>
       </c>
       <c r="I3" s="35" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="J3" s="35" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="K3" s="35" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="L3" s="35" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="M3" s="35" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N3" s="35" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="O3" s="35" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="P3" s="35" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="Q3" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="R3" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="S3" s="25" t="s">
+      <c r="R3" s="25" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="26">
         <v>1</v>
       </c>
@@ -4276,17 +4240,16 @@
       <c r="L4" s="33"/>
       <c r="M4" s="33"/>
       <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
+      <c r="O4" s="34"/>
       <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="S4" s="27">
-        <v>42788</v>
-      </c>
-    </row>
-    <row r="5" spans="2:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q4" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="R4" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="26">
         <v>2</v>
       </c>
@@ -4302,27 +4265,26 @@
       <c r="F5" s="34"/>
       <c r="G5" s="34"/>
       <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
+      <c r="I5" s="33"/>
       <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="34" t="s">
+      <c r="K5" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="33"/>
-      <c r="N5" s="34" t="s">
+      <c r="L5" s="33"/>
+      <c r="M5" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="O5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="33"/>
       <c r="P5" s="33"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="S5" s="27">
-        <v>42788</v>
-      </c>
-    </row>
-    <row r="6" spans="2:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q5" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="R5" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="26">
         <v>3</v>
       </c>
@@ -4332,7 +4294,7 @@
       <c r="F6" s="33"/>
       <c r="G6" s="34"/>
       <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
+      <c r="I6" s="33"/>
       <c r="J6" s="33"/>
       <c r="K6" s="33"/>
       <c r="L6" s="33"/>
@@ -4340,15 +4302,14 @@
       <c r="N6" s="33"/>
       <c r="O6" s="33"/>
       <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="S6" s="27">
-        <v>42788</v>
-      </c>
-    </row>
-    <row r="7" spans="2:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q6" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="R6" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="26">
         <v>4</v>
       </c>
@@ -4366,15 +4327,14 @@
       <c r="N7" s="33"/>
       <c r="O7" s="33"/>
       <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="S7" s="27">
-        <v>42788</v>
-      </c>
-    </row>
-    <row r="8" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q7" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="R7" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="26">
         <v>5</v>
       </c>
@@ -4392,15 +4352,14 @@
       <c r="N8" s="33"/>
       <c r="O8" s="33"/>
       <c r="P8" s="33"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="S8" s="27">
-        <v>42788</v>
-      </c>
-    </row>
-    <row r="9" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q8" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="R8" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="26">
         <v>6</v>
       </c>
@@ -4410,7 +4369,7 @@
       <c r="F9" s="33"/>
       <c r="G9" s="34"/>
       <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
+      <c r="I9" s="33"/>
       <c r="J9" s="33"/>
       <c r="K9" s="33"/>
       <c r="L9" s="33"/>
@@ -4418,15 +4377,14 @@
       <c r="N9" s="33"/>
       <c r="O9" s="33"/>
       <c r="P9" s="33"/>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="S9" s="27">
-        <v>42788</v>
-      </c>
-    </row>
-    <row r="10" spans="2:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q9" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="R9" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="26">
         <v>7</v>
       </c>
@@ -4436,7 +4394,7 @@
       <c r="F10" s="33"/>
       <c r="G10" s="34"/>
       <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
+      <c r="I10" s="33"/>
       <c r="J10" s="33"/>
       <c r="K10" s="33"/>
       <c r="L10" s="33"/>
@@ -4444,15 +4402,14 @@
       <c r="N10" s="33"/>
       <c r="O10" s="33"/>
       <c r="P10" s="33"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="33" t="s">
+      <c r="Q10" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="S10" s="27">
-        <v>42788</v>
-      </c>
-    </row>
-    <row r="11" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R10" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="26">
         <v>8</v>
       </c>
@@ -4470,15 +4427,14 @@
       <c r="N11" s="33"/>
       <c r="O11" s="33"/>
       <c r="P11" s="33"/>
-      <c r="Q11" s="33"/>
-      <c r="R11" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="S11" s="27">
-        <v>42788</v>
-      </c>
-    </row>
-    <row r="12" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q11" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="R11" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="26">
         <v>9</v>
       </c>
@@ -4496,15 +4452,14 @@
       <c r="N12" s="33"/>
       <c r="O12" s="33"/>
       <c r="P12" s="33"/>
-      <c r="Q12" s="33"/>
-      <c r="R12" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="S12" s="27">
-        <v>42788</v>
-      </c>
-    </row>
-    <row r="13" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q12" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="R12" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="26">
         <v>10</v>
       </c>
@@ -4514,7 +4469,7 @@
       <c r="F13" s="33"/>
       <c r="G13" s="34"/>
       <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
+      <c r="I13" s="33"/>
       <c r="J13" s="33"/>
       <c r="K13" s="33"/>
       <c r="L13" s="33"/>
@@ -4522,15 +4477,14 @@
       <c r="N13" s="33"/>
       <c r="O13" s="33"/>
       <c r="P13" s="33"/>
-      <c r="Q13" s="33"/>
-      <c r="R13" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="S13" s="27">
-        <v>42788</v>
-      </c>
-    </row>
-    <row r="14" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q13" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="R13" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="26">
         <v>11</v>
       </c>
@@ -4548,15 +4502,14 @@
       <c r="N14" s="33"/>
       <c r="O14" s="33"/>
       <c r="P14" s="33"/>
-      <c r="Q14" s="33"/>
-      <c r="R14" s="33" t="s">
+      <c r="Q14" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="S14" s="27">
-        <v>42788</v>
-      </c>
-    </row>
-    <row r="15" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R14" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="26">
         <v>12</v>
       </c>
@@ -4574,15 +4527,14 @@
       <c r="N15" s="33"/>
       <c r="O15" s="33"/>
       <c r="P15" s="33"/>
-      <c r="Q15" s="33"/>
-      <c r="R15" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="S15" s="27">
-        <v>42788</v>
-      </c>
-    </row>
-    <row r="16" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q15" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="R15" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="26">
         <v>13</v>
       </c>
@@ -4592,7 +4544,7 @@
       <c r="F16" s="33"/>
       <c r="G16" s="34"/>
       <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
+      <c r="I16" s="33"/>
       <c r="J16" s="33"/>
       <c r="K16" s="33"/>
       <c r="L16" s="33"/>
@@ -4600,15 +4552,14 @@
       <c r="N16" s="33"/>
       <c r="O16" s="33"/>
       <c r="P16" s="33"/>
-      <c r="Q16" s="33"/>
-      <c r="R16" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="S16" s="27">
-        <v>42788</v>
-      </c>
-    </row>
-    <row r="17" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q16" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="R16" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="26">
         <v>14</v>
       </c>
@@ -4618,7 +4569,7 @@
       <c r="F17" s="33"/>
       <c r="G17" s="34"/>
       <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
+      <c r="I17" s="33"/>
       <c r="J17" s="33"/>
       <c r="K17" s="33"/>
       <c r="L17" s="33"/>
@@ -4626,15 +4577,14 @@
       <c r="N17" s="33"/>
       <c r="O17" s="33"/>
       <c r="P17" s="33"/>
-      <c r="Q17" s="33"/>
-      <c r="R17" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="S17" s="27">
-        <v>42788</v>
-      </c>
-    </row>
-    <row r="18" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q17" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="R17" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="26">
         <v>15</v>
       </c>
@@ -4644,7 +4594,7 @@
       <c r="F18" s="33"/>
       <c r="G18" s="34"/>
       <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
+      <c r="I18" s="33"/>
       <c r="J18" s="33"/>
       <c r="K18" s="33"/>
       <c r="L18" s="33"/>
@@ -4652,15 +4602,14 @@
       <c r="N18" s="33"/>
       <c r="O18" s="33"/>
       <c r="P18" s="33"/>
-      <c r="Q18" s="33"/>
-      <c r="R18" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="S18" s="27">
-        <v>42788</v>
-      </c>
-    </row>
-    <row r="19" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q18" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="R18" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="26">
         <v>16</v>
       </c>
@@ -4676,29 +4625,28 @@
       <c r="F19" s="33"/>
       <c r="G19" s="34"/>
       <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33">
+      <c r="I19" s="33"/>
+      <c r="J19" s="33">
         <v>1</v>
       </c>
+      <c r="K19" s="33"/>
       <c r="L19" s="33"/>
-      <c r="M19" s="33"/>
+      <c r="M19" s="34" t="s">
+        <v>25</v>
+      </c>
       <c r="N19" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="O19" s="34" t="s">
-        <v>25</v>
-      </c>
+      <c r="O19" s="34"/>
       <c r="P19" s="34"/>
-      <c r="Q19" s="34"/>
-      <c r="R19" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="S19" s="27">
-        <v>42788</v>
-      </c>
-    </row>
-    <row r="20" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q19" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="R19" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="26">
         <v>17</v>
       </c>
@@ -4714,25 +4662,24 @@
       <c r="F20" s="33"/>
       <c r="G20" s="34"/>
       <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
+      <c r="I20" s="33"/>
       <c r="J20" s="33"/>
       <c r="K20" s="33"/>
       <c r="L20" s="33"/>
       <c r="M20" s="33"/>
-      <c r="N20" s="33"/>
-      <c r="O20" s="34" t="s">
+      <c r="N20" s="34" t="s">
         <v>25</v>
       </c>
+      <c r="O20" s="34"/>
       <c r="P20" s="34"/>
-      <c r="Q20" s="34"/>
-      <c r="R20" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="S20" s="27">
-        <v>42788</v>
-      </c>
-    </row>
-    <row r="21" spans="2:19" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q20" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="R20" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="26">
         <v>18</v>
       </c>
@@ -4748,25 +4695,24 @@
       <c r="F21" s="33"/>
       <c r="G21" s="29"/>
       <c r="H21" s="29"/>
-      <c r="I21" s="44"/>
+      <c r="I21" s="33"/>
       <c r="J21" s="33"/>
       <c r="K21" s="33"/>
       <c r="L21" s="33"/>
       <c r="M21" s="33"/>
-      <c r="N21" s="33"/>
-      <c r="O21" s="34" t="s">
+      <c r="N21" s="34" t="s">
         <v>25</v>
       </c>
+      <c r="O21" s="34"/>
       <c r="P21" s="34"/>
-      <c r="Q21" s="34"/>
-      <c r="R21" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="S21" s="27">
-        <v>42788</v>
-      </c>
-    </row>
-    <row r="22" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q21" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="R21" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="26">
         <v>19</v>
       </c>
@@ -4776,7 +4722,7 @@
       <c r="F22" s="33"/>
       <c r="G22" s="34"/>
       <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
+      <c r="I22" s="33"/>
       <c r="J22" s="33"/>
       <c r="K22" s="33"/>
       <c r="L22" s="33"/>
@@ -4784,15 +4730,14 @@
       <c r="N22" s="33"/>
       <c r="O22" s="33"/>
       <c r="P22" s="33"/>
-      <c r="Q22" s="33"/>
-      <c r="R22" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="S22" s="27">
-        <v>42788</v>
-      </c>
-    </row>
-    <row r="23" spans="2:19" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q22" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="R22" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="32">
         <v>20</v>
       </c>
@@ -4802,7 +4747,7 @@
       <c r="F23" s="36"/>
       <c r="G23" s="29"/>
       <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
+      <c r="I23" s="36"/>
       <c r="J23" s="36"/>
       <c r="K23" s="36"/>
       <c r="L23" s="36"/>
@@ -4810,11 +4755,10 @@
       <c r="N23" s="36"/>
       <c r="O23" s="36"/>
       <c r="P23" s="36"/>
-      <c r="Q23" s="36"/>
-      <c r="R23" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="S23" s="27">
+      <c r="Q23" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="R23" s="27">
         <v>42788</v>
       </c>
     </row>
@@ -4822,8 +4766,8 @@
   <mergeCells count="4">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:J2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4833,10 +4777,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:S23"/>
+  <dimension ref="B1:R23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4846,49 +4790,48 @@
     <col min="3" max="3" width="14.875" style="38" customWidth="1"/>
     <col min="4" max="4" width="18" style="38" customWidth="1"/>
     <col min="5" max="5" width="13.375" style="38" customWidth="1"/>
-    <col min="6" max="9" width="9" style="38"/>
-    <col min="10" max="10" width="12.5" style="38" customWidth="1"/>
-    <col min="11" max="11" width="10.375" style="38" customWidth="1"/>
-    <col min="12" max="12" width="11.25" style="38" customWidth="1"/>
-    <col min="13" max="13" width="9" style="38"/>
-    <col min="14" max="14" width="10" style="38" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10" style="38" customWidth="1"/>
-    <col min="16" max="17" width="16.25" style="38" customWidth="1"/>
-    <col min="18" max="18" width="9" style="38"/>
-    <col min="19" max="19" width="10" style="38" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="38"/>
+    <col min="6" max="8" width="9" style="38"/>
+    <col min="9" max="9" width="12.5" style="38" customWidth="1"/>
+    <col min="10" max="10" width="10.375" style="38" customWidth="1"/>
+    <col min="11" max="11" width="11.25" style="38" customWidth="1"/>
+    <col min="12" max="12" width="9" style="38"/>
+    <col min="13" max="13" width="10" style="38" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10" style="38" customWidth="1"/>
+    <col min="15" max="16" width="16.25" style="38" customWidth="1"/>
+    <col min="17" max="17" width="9" style="38"/>
+    <col min="18" max="18" width="10" style="38" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="45" t="s">
+    <row r="1" spans="2:18" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46" t="s">
+      <c r="C2" s="47"/>
+      <c r="D2" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2" s="47"/>
+      <c r="F2" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="46" t="s">
-        <v>130</v>
-      </c>
-      <c r="K2" s="46"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="43"/>
       <c r="L2" s="43"/>
       <c r="M2" s="43"/>
       <c r="N2" s="43"/>
       <c r="O2" s="43"/>
       <c r="P2" s="43"/>
       <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="23"/>
-    </row>
-    <row r="3" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R2" s="23"/>
+    </row>
+    <row r="3" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="24" t="s">
         <v>70</v>
       </c>
@@ -4911,40 +4854,37 @@
         <v>72</v>
       </c>
       <c r="I3" s="35" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="J3" s="35" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="K3" s="35" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="L3" s="35" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="M3" s="35" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N3" s="35" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="O3" s="35" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="P3" s="35" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="Q3" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="R3" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="S3" s="25" t="s">
+      <c r="R3" s="25" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="26">
         <v>1</v>
       </c>
@@ -4968,17 +4908,16 @@
       <c r="L4" s="33"/>
       <c r="M4" s="33"/>
       <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
+      <c r="O4" s="34"/>
       <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="S4" s="27">
-        <v>42788</v>
-      </c>
-    </row>
-    <row r="5" spans="2:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q4" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="R4" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="26">
         <v>2</v>
       </c>
@@ -4994,27 +4933,26 @@
       <c r="F5" s="34"/>
       <c r="G5" s="34"/>
       <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
+      <c r="I5" s="33"/>
       <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="34" t="s">
+      <c r="K5" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="33"/>
-      <c r="N5" s="34" t="s">
+      <c r="L5" s="33"/>
+      <c r="M5" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="O5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="33"/>
       <c r="P5" s="33"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="S5" s="27">
-        <v>42788</v>
-      </c>
-    </row>
-    <row r="6" spans="2:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q5" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="R5" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="26">
         <v>3</v>
       </c>
@@ -5024,7 +4962,7 @@
       <c r="F6" s="33"/>
       <c r="G6" s="34"/>
       <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
+      <c r="I6" s="33"/>
       <c r="J6" s="33"/>
       <c r="K6" s="33"/>
       <c r="L6" s="33"/>
@@ -5032,15 +4970,14 @@
       <c r="N6" s="33"/>
       <c r="O6" s="33"/>
       <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="S6" s="27">
-        <v>42788</v>
-      </c>
-    </row>
-    <row r="7" spans="2:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q6" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="R6" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="26">
         <v>4</v>
       </c>
@@ -5058,15 +4995,14 @@
       <c r="N7" s="33"/>
       <c r="O7" s="33"/>
       <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="S7" s="27">
-        <v>42788</v>
-      </c>
-    </row>
-    <row r="8" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q7" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="R7" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="26">
         <v>5</v>
       </c>
@@ -5084,15 +5020,14 @@
       <c r="N8" s="33"/>
       <c r="O8" s="33"/>
       <c r="P8" s="33"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="S8" s="27">
-        <v>42788</v>
-      </c>
-    </row>
-    <row r="9" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q8" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="R8" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="26">
         <v>6</v>
       </c>
@@ -5102,7 +5037,7 @@
       <c r="F9" s="33"/>
       <c r="G9" s="34"/>
       <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
+      <c r="I9" s="33"/>
       <c r="J9" s="33"/>
       <c r="K9" s="33"/>
       <c r="L9" s="33"/>
@@ -5110,15 +5045,14 @@
       <c r="N9" s="33"/>
       <c r="O9" s="33"/>
       <c r="P9" s="33"/>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="S9" s="27">
-        <v>42788</v>
-      </c>
-    </row>
-    <row r="10" spans="2:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q9" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="R9" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="26">
         <v>7</v>
       </c>
@@ -5128,7 +5062,7 @@
       <c r="F10" s="33"/>
       <c r="G10" s="34"/>
       <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
+      <c r="I10" s="33"/>
       <c r="J10" s="33"/>
       <c r="K10" s="33"/>
       <c r="L10" s="33"/>
@@ -5136,15 +5070,14 @@
       <c r="N10" s="33"/>
       <c r="O10" s="33"/>
       <c r="P10" s="33"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="33" t="s">
+      <c r="Q10" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="S10" s="27">
-        <v>42788</v>
-      </c>
-    </row>
-    <row r="11" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R10" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="26">
         <v>8</v>
       </c>
@@ -5162,15 +5095,14 @@
       <c r="N11" s="33"/>
       <c r="O11" s="33"/>
       <c r="P11" s="33"/>
-      <c r="Q11" s="33"/>
-      <c r="R11" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="S11" s="27">
-        <v>42788</v>
-      </c>
-    </row>
-    <row r="12" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q11" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="R11" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="26">
         <v>9</v>
       </c>
@@ -5188,15 +5120,14 @@
       <c r="N12" s="33"/>
       <c r="O12" s="33"/>
       <c r="P12" s="33"/>
-      <c r="Q12" s="33"/>
-      <c r="R12" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="S12" s="27">
-        <v>42788</v>
-      </c>
-    </row>
-    <row r="13" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q12" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="R12" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="26">
         <v>10</v>
       </c>
@@ -5206,7 +5137,7 @@
       <c r="F13" s="33"/>
       <c r="G13" s="34"/>
       <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
+      <c r="I13" s="33"/>
       <c r="J13" s="33"/>
       <c r="K13" s="33"/>
       <c r="L13" s="33"/>
@@ -5214,15 +5145,14 @@
       <c r="N13" s="33"/>
       <c r="O13" s="33"/>
       <c r="P13" s="33"/>
-      <c r="Q13" s="33"/>
-      <c r="R13" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="S13" s="27">
-        <v>42788</v>
-      </c>
-    </row>
-    <row r="14" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q13" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="R13" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="26">
         <v>11</v>
       </c>
@@ -5240,15 +5170,14 @@
       <c r="N14" s="33"/>
       <c r="O14" s="33"/>
       <c r="P14" s="33"/>
-      <c r="Q14" s="33"/>
-      <c r="R14" s="33" t="s">
+      <c r="Q14" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="S14" s="27">
-        <v>42788</v>
-      </c>
-    </row>
-    <row r="15" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R14" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="26">
         <v>12</v>
       </c>
@@ -5266,15 +5195,14 @@
       <c r="N15" s="33"/>
       <c r="O15" s="33"/>
       <c r="P15" s="33"/>
-      <c r="Q15" s="33"/>
-      <c r="R15" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="S15" s="27">
-        <v>42788</v>
-      </c>
-    </row>
-    <row r="16" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q15" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="R15" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="26">
         <v>13</v>
       </c>
@@ -5284,7 +5212,7 @@
       <c r="F16" s="33"/>
       <c r="G16" s="34"/>
       <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
+      <c r="I16" s="33"/>
       <c r="J16" s="33"/>
       <c r="K16" s="33"/>
       <c r="L16" s="33"/>
@@ -5292,15 +5220,14 @@
       <c r="N16" s="33"/>
       <c r="O16" s="33"/>
       <c r="P16" s="33"/>
-      <c r="Q16" s="33"/>
-      <c r="R16" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="S16" s="27">
-        <v>42788</v>
-      </c>
-    </row>
-    <row r="17" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q16" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="R16" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="26">
         <v>14</v>
       </c>
@@ -5310,7 +5237,7 @@
       <c r="F17" s="33"/>
       <c r="G17" s="34"/>
       <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
+      <c r="I17" s="33"/>
       <c r="J17" s="33"/>
       <c r="K17" s="33"/>
       <c r="L17" s="33"/>
@@ -5318,15 +5245,14 @@
       <c r="N17" s="33"/>
       <c r="O17" s="33"/>
       <c r="P17" s="33"/>
-      <c r="Q17" s="33"/>
-      <c r="R17" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="S17" s="27">
-        <v>42788</v>
-      </c>
-    </row>
-    <row r="18" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q17" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="R17" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="26">
         <v>15</v>
       </c>
@@ -5336,7 +5262,7 @@
       <c r="F18" s="33"/>
       <c r="G18" s="34"/>
       <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
+      <c r="I18" s="33"/>
       <c r="J18" s="33"/>
       <c r="K18" s="33"/>
       <c r="L18" s="33"/>
@@ -5344,15 +5270,14 @@
       <c r="N18" s="33"/>
       <c r="O18" s="33"/>
       <c r="P18" s="33"/>
-      <c r="Q18" s="33"/>
-      <c r="R18" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="S18" s="27">
-        <v>42788</v>
-      </c>
-    </row>
-    <row r="19" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q18" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="R18" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="26">
         <v>16</v>
       </c>
@@ -5368,29 +5293,28 @@
       <c r="F19" s="33"/>
       <c r="G19" s="34"/>
       <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33">
+      <c r="I19" s="33"/>
+      <c r="J19" s="33">
         <v>1</v>
       </c>
+      <c r="K19" s="33"/>
       <c r="L19" s="33"/>
-      <c r="M19" s="33"/>
+      <c r="M19" s="34" t="s">
+        <v>25</v>
+      </c>
       <c r="N19" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="O19" s="34" t="s">
-        <v>25</v>
-      </c>
+      <c r="O19" s="34"/>
       <c r="P19" s="34"/>
-      <c r="Q19" s="34"/>
-      <c r="R19" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="S19" s="27">
-        <v>42788</v>
-      </c>
-    </row>
-    <row r="20" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q19" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="R19" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="26">
         <v>17</v>
       </c>
@@ -5406,25 +5330,24 @@
       <c r="F20" s="33"/>
       <c r="G20" s="34"/>
       <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
+      <c r="I20" s="33"/>
       <c r="J20" s="33"/>
       <c r="K20" s="33"/>
       <c r="L20" s="33"/>
       <c r="M20" s="33"/>
-      <c r="N20" s="33"/>
-      <c r="O20" s="34" t="s">
+      <c r="N20" s="34" t="s">
         <v>25</v>
       </c>
+      <c r="O20" s="34"/>
       <c r="P20" s="34"/>
-      <c r="Q20" s="34"/>
-      <c r="R20" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="S20" s="27">
-        <v>42788</v>
-      </c>
-    </row>
-    <row r="21" spans="2:19" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q20" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="R20" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="26">
         <v>18</v>
       </c>
@@ -5440,25 +5363,24 @@
       <c r="F21" s="33"/>
       <c r="G21" s="29"/>
       <c r="H21" s="29"/>
-      <c r="I21" s="44"/>
+      <c r="I21" s="33"/>
       <c r="J21" s="33"/>
       <c r="K21" s="33"/>
       <c r="L21" s="33"/>
       <c r="M21" s="33"/>
-      <c r="N21" s="33"/>
-      <c r="O21" s="34" t="s">
+      <c r="N21" s="34" t="s">
         <v>25</v>
       </c>
+      <c r="O21" s="34"/>
       <c r="P21" s="34"/>
-      <c r="Q21" s="34"/>
-      <c r="R21" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="S21" s="27">
-        <v>42788</v>
-      </c>
-    </row>
-    <row r="22" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q21" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="R21" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="26">
         <v>19</v>
       </c>
@@ -5468,7 +5390,7 @@
       <c r="F22" s="33"/>
       <c r="G22" s="34"/>
       <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
+      <c r="I22" s="33"/>
       <c r="J22" s="33"/>
       <c r="K22" s="33"/>
       <c r="L22" s="33"/>
@@ -5476,15 +5398,14 @@
       <c r="N22" s="33"/>
       <c r="O22" s="33"/>
       <c r="P22" s="33"/>
-      <c r="Q22" s="33"/>
-      <c r="R22" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="S22" s="27">
-        <v>42788</v>
-      </c>
-    </row>
-    <row r="23" spans="2:19" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q22" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="R22" s="27">
+        <v>42788</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="32">
         <v>20</v>
       </c>
@@ -5494,7 +5415,7 @@
       <c r="F23" s="36"/>
       <c r="G23" s="29"/>
       <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
+      <c r="I23" s="36"/>
       <c r="J23" s="36"/>
       <c r="K23" s="36"/>
       <c r="L23" s="36"/>
@@ -5502,11 +5423,10 @@
       <c r="N23" s="36"/>
       <c r="O23" s="36"/>
       <c r="P23" s="36"/>
-      <c r="Q23" s="36"/>
-      <c r="R23" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="S23" s="27">
+      <c r="Q23" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="R23" s="27">
         <v>42788</v>
       </c>
     </row>
@@ -5514,8 +5434,8 @@
   <mergeCells count="4">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:J2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
